--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaMovimientos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -93,10 +93,19 @@
     <t>ACTIVO</t>
   </si>
   <si>
-    <t>Cuenta Corriente</t>
+    <t>Corriente</t>
   </si>
   <si>
     <t>406-140100-01</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>creadoosp11</t>
+  </si>
+  <si>
+    <t>406-101530-07</t>
   </si>
   <si>
     <t>Prestamo Personal Ta;Prestamo Personal Ta</t>
@@ -158,10 +167,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -202,7 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,12 +227,27 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -232,23 +256,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -277,28 +310,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -306,33 +333,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,187 +374,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,6 +586,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -585,10 +618,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -605,15 +636,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,24 +657,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,149 +683,149 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,8 +1165,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
@@ -1258,19 +1267,49 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+    <row r="3" spans="1:14">
+      <c r="A3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5"/>
@@ -1288,7 +1327,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J2;G3:J3;G4:J4">
       <formula1>Listas!$A$2:$A$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -1399,10 +1438,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1464,16 +1503,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1481,50 +1520,50 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaMovimientos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -66,46 +66,49 @@
     <t>1037655531</t>
   </si>
   <si>
+    <t>userqa10</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>4321</t>
+  </si>
+  <si>
+    <t>Acierto</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>0369</t>
+  </si>
+  <si>
+    <t>NO ERROR</t>
+  </si>
+  <si>
+    <t>bolp</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>Corriente</t>
+  </si>
+  <si>
+    <t>406-140100-01</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>creadoosp11</t>
+  </si>
+  <si>
+    <t>406-101530-07</t>
+  </si>
+  <si>
     <t>zrediseño12</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>4321</t>
-  </si>
-  <si>
-    <t>Acierto</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>0369</t>
-  </si>
-  <si>
-    <t>NO ERROR</t>
-  </si>
-  <si>
-    <t>bolp</t>
-  </si>
-  <si>
-    <t>ACTIVO</t>
-  </si>
-  <si>
-    <t>Corriente</t>
-  </si>
-  <si>
-    <t>406-140100-01</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>creadoosp11</t>
-  </si>
-  <si>
-    <t>406-101530-07</t>
   </si>
   <si>
     <t>Prestamo Personal Ta;Prestamo Personal Ta</t>
@@ -167,10 +170,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -197,6 +200,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -204,14 +214,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,71 +327,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,43 +349,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -374,19 +377,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,37 +521,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,18 +551,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -465,96 +558,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,6 +595,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -616,30 +669,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -654,178 +683,152 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -846,55 +849,55 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Título 3" xfId="1" builtinId="18"/>
-    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
-    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moneda" xfId="5" builtinId="4"/>
-    <cellStyle name="Coma" xfId="6" builtinId="3"/>
-    <cellStyle name="Porcentaje" xfId="7" builtinId="5"/>
-    <cellStyle name="Hipervínculo" xfId="8" builtinId="8"/>
-    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21"/>
-    <cellStyle name="Nota" xfId="11" builtinId="10"/>
-    <cellStyle name="Título 2" xfId="12" builtinId="17"/>
-    <cellStyle name="Texto de advertencia" xfId="13" builtinId="11"/>
-    <cellStyle name="Título" xfId="14" builtinId="15"/>
-    <cellStyle name="Texto explicativo" xfId="15" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="16" builtinId="16"/>
-    <cellStyle name="Título 4" xfId="17" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="18" builtinId="20"/>
-    <cellStyle name="Cálculo" xfId="19" builtinId="22"/>
-    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23"/>
-    <cellStyle name="Celda vinculada" xfId="21" builtinId="24"/>
-    <cellStyle name="Total" xfId="22" builtinId="25"/>
-    <cellStyle name="Correcto" xfId="23" builtinId="26"/>
-    <cellStyle name="40% - Énfasis5" xfId="24" builtinId="47"/>
-    <cellStyle name="Incorrecto" xfId="25" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="26" builtinId="28"/>
-    <cellStyle name="20% - Énfasis5" xfId="27" builtinId="46"/>
-    <cellStyle name="Énfasis1" xfId="28" builtinId="29"/>
-    <cellStyle name="20% - Énfasis1" xfId="29" builtinId="30"/>
-    <cellStyle name="60% - Énfasis1" xfId="30" builtinId="32"/>
-    <cellStyle name="20% - Énfasis6" xfId="31" builtinId="50"/>
-    <cellStyle name="Énfasis2" xfId="32" builtinId="33"/>
-    <cellStyle name="20% - Énfasis2" xfId="33" builtinId="34"/>
-    <cellStyle name="40% - Énfasis2" xfId="34" builtinId="35"/>
-    <cellStyle name="60% - Énfasis2" xfId="35" builtinId="36"/>
-    <cellStyle name="Énfasis3" xfId="36" builtinId="37"/>
-    <cellStyle name="20% - Énfasis3" xfId="37" builtinId="38"/>
-    <cellStyle name="40% - Énfasis3" xfId="38" builtinId="39"/>
-    <cellStyle name="60% - Énfasis3" xfId="39" builtinId="40"/>
-    <cellStyle name="Énfasis4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Énfasis4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Énfasis4" xfId="42" builtinId="43"/>
-    <cellStyle name="60% - Énfasis4" xfId="43" builtinId="44"/>
-    <cellStyle name="Énfasis5" xfId="44" builtinId="45"/>
-    <cellStyle name="60% - Énfasis5" xfId="45" builtinId="48"/>
-    <cellStyle name="Énfasis6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
-    <cellStyle name="Normal 2" xfId="48"/>
-    <cellStyle name="60% - Énfasis6" xfId="49" builtinId="52"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1165,8 +1168,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
@@ -1411,7 +1414,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -1438,10 +1441,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1503,16 +1506,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1520,50 +1523,50 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
